--- a/src/test/resources/data/TestData.xlsx
+++ b/src/test/resources/data/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\WorkSpace\09122020\Agile_BDD\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B487CB-2B9A-4EEF-968D-E66AC47DBE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FBE00D-A320-4B51-8AC6-310A0E173967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{311D4E81-236B-4B48-BB9B-8CF770BAFD22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{311D4E81-236B-4B48-BB9B-8CF770BAFD22}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateUser" sheetId="1" r:id="rId1"/>
     <sheet name="GetUser" sheetId="2" r:id="rId2"/>
+    <sheet name="Fahrenheit" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -62,6 +63,21 @@
   </si>
   <si>
     <t>1386</t>
+  </si>
+  <si>
+    <t>Fahrenheit</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
 </sst>
 </file>
@@ -106,12 +122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5C678F-27B5-4582-BDC1-32105BC75B30}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -547,4 +564,46 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F50B01-A63D-4679-8113-1D7255113337}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>